--- a/SIM Card Details/Airtel/All Airtel Numbers/All Airtel Numbers.xlsx
+++ b/SIM Card Details/Airtel/All Airtel Numbers/All Airtel Numbers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9795" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9795" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="All SIMS" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'All SIMS'!$B$1:$L$419</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'All SIMS'!$A$1:$L$419</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Info!$A$1:$K$67</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9661" uniqueCount="1279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9731" uniqueCount="1309">
   <si>
     <t>MOBILE_NUMBER</t>
   </si>
@@ -3864,6 +3864,96 @@
   </si>
   <si>
     <t>Airtel</t>
+  </si>
+  <si>
+    <t>5754000558762</t>
+  </si>
+  <si>
+    <t>8991000905770767822</t>
+  </si>
+  <si>
+    <t>404490624645598</t>
+  </si>
+  <si>
+    <t>5754000558758</t>
+  </si>
+  <si>
+    <t>8991000905770767780</t>
+  </si>
+  <si>
+    <t>404490624647458</t>
+  </si>
+  <si>
+    <t>5754000558756</t>
+  </si>
+  <si>
+    <t>8991000905770767764</t>
+  </si>
+  <si>
+    <t>404490624647457</t>
+  </si>
+  <si>
+    <t>5754000558764</t>
+  </si>
+  <si>
+    <t>8991000905770767848</t>
+  </si>
+  <si>
+    <t>404490624645614</t>
+  </si>
+  <si>
+    <t>5754000558759</t>
+  </si>
+  <si>
+    <t>8991000905770767798</t>
+  </si>
+  <si>
+    <t>404490624645627</t>
+  </si>
+  <si>
+    <t>5754000558760</t>
+  </si>
+  <si>
+    <t>8991000905770767806</t>
+  </si>
+  <si>
+    <t>404490624645603</t>
+  </si>
+  <si>
+    <t>5754000558757</t>
+  </si>
+  <si>
+    <t>8991000905770767772</t>
+  </si>
+  <si>
+    <t>404490624645631</t>
+  </si>
+  <si>
+    <t>5754000558763</t>
+  </si>
+  <si>
+    <t>8991000905770767830</t>
+  </si>
+  <si>
+    <t>404490624645606</t>
+  </si>
+  <si>
+    <t>5754000558761</t>
+  </si>
+  <si>
+    <t>8991000905770767814</t>
+  </si>
+  <si>
+    <t>404490624647460</t>
+  </si>
+  <si>
+    <t>5754000558755</t>
+  </si>
+  <si>
+    <t>8991000905770767756</t>
+  </si>
+  <si>
+    <t>404490624645618</t>
   </si>
 </sst>
 </file>
@@ -19092,10 +19182,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:L419"/>
+  <dimension ref="A1:L429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F392" sqref="F392:F429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34023,7 +34113,7 @@
         <v>14</v>
       </c>
       <c r="F393" s="5" t="s">
-        <v>745</v>
+        <v>15</v>
       </c>
       <c r="G393" s="5" t="s">
         <v>16</v>
@@ -34061,7 +34151,7 @@
         <v>14</v>
       </c>
       <c r="F394" s="5" t="s">
-        <v>745</v>
+        <v>15</v>
       </c>
       <c r="G394" s="5" t="s">
         <v>16</v>
@@ -34099,7 +34189,7 @@
         <v>14</v>
       </c>
       <c r="F395" s="5" t="s">
-        <v>745</v>
+        <v>15</v>
       </c>
       <c r="G395" s="5" t="s">
         <v>16</v>
@@ -34137,7 +34227,7 @@
         <v>14</v>
       </c>
       <c r="F396" s="5" t="s">
-        <v>745</v>
+        <v>15</v>
       </c>
       <c r="G396" s="5" t="s">
         <v>16</v>
@@ -34175,7 +34265,7 @@
         <v>14</v>
       </c>
       <c r="F397" s="5" t="s">
-        <v>745</v>
+        <v>15</v>
       </c>
       <c r="G397" s="5" t="s">
         <v>16</v>
@@ -34213,7 +34303,7 @@
         <v>14</v>
       </c>
       <c r="F398" s="5" t="s">
-        <v>745</v>
+        <v>15</v>
       </c>
       <c r="G398" s="5" t="s">
         <v>16</v>
@@ -34251,7 +34341,7 @@
         <v>14</v>
       </c>
       <c r="F399" s="5" t="s">
-        <v>745</v>
+        <v>15</v>
       </c>
       <c r="G399" s="5" t="s">
         <v>16</v>
@@ -34289,7 +34379,7 @@
         <v>14</v>
       </c>
       <c r="F400" s="5" t="s">
-        <v>745</v>
+        <v>15</v>
       </c>
       <c r="G400" s="5" t="s">
         <v>16</v>
@@ -34327,7 +34417,7 @@
         <v>14</v>
       </c>
       <c r="F401" s="5" t="s">
-        <v>745</v>
+        <v>15</v>
       </c>
       <c r="G401" s="5" t="s">
         <v>16</v>
@@ -34365,7 +34455,7 @@
         <v>14</v>
       </c>
       <c r="F402" s="5" t="s">
-        <v>745</v>
+        <v>15</v>
       </c>
       <c r="G402" s="5" t="s">
         <v>16</v>
@@ -34403,7 +34493,7 @@
         <v>14</v>
       </c>
       <c r="F403" s="5" t="s">
-        <v>745</v>
+        <v>15</v>
       </c>
       <c r="G403" s="5" t="s">
         <v>16</v>
@@ -34441,7 +34531,7 @@
         <v>14</v>
       </c>
       <c r="F404" s="5" t="s">
-        <v>745</v>
+        <v>15</v>
       </c>
       <c r="G404" s="5" t="s">
         <v>16</v>
@@ -34479,7 +34569,7 @@
         <v>14</v>
       </c>
       <c r="F405" s="5" t="s">
-        <v>745</v>
+        <v>15</v>
       </c>
       <c r="G405" s="5" t="s">
         <v>16</v>
@@ -34517,7 +34607,7 @@
         <v>14</v>
       </c>
       <c r="F406" s="5" t="s">
-        <v>745</v>
+        <v>15</v>
       </c>
       <c r="G406" s="5" t="s">
         <v>16</v>
@@ -34555,7 +34645,7 @@
         <v>14</v>
       </c>
       <c r="F407" s="5" t="s">
-        <v>745</v>
+        <v>15</v>
       </c>
       <c r="G407" s="5" t="s">
         <v>16</v>
@@ -34593,7 +34683,7 @@
         <v>14</v>
       </c>
       <c r="F408" s="5" t="s">
-        <v>745</v>
+        <v>15</v>
       </c>
       <c r="G408" s="5" t="s">
         <v>16</v>
@@ -34631,7 +34721,7 @@
         <v>14</v>
       </c>
       <c r="F409" s="5" t="s">
-        <v>745</v>
+        <v>15</v>
       </c>
       <c r="G409" s="5" t="s">
         <v>16</v>
@@ -34669,7 +34759,7 @@
         <v>14</v>
       </c>
       <c r="F410" s="5" t="s">
-        <v>745</v>
+        <v>15</v>
       </c>
       <c r="G410" s="5" t="s">
         <v>16</v>
@@ -34707,7 +34797,7 @@
         <v>14</v>
       </c>
       <c r="F411" s="5" t="s">
-        <v>745</v>
+        <v>15</v>
       </c>
       <c r="G411" s="5" t="s">
         <v>16</v>
@@ -34745,7 +34835,7 @@
         <v>14</v>
       </c>
       <c r="F412" s="5" t="s">
-        <v>745</v>
+        <v>15</v>
       </c>
       <c r="G412" s="5" t="s">
         <v>16</v>
@@ -34783,7 +34873,7 @@
         <v>14</v>
       </c>
       <c r="F413" s="5" t="s">
-        <v>745</v>
+        <v>15</v>
       </c>
       <c r="G413" s="5" t="s">
         <v>16</v>
@@ -34821,7 +34911,7 @@
         <v>14</v>
       </c>
       <c r="F414" s="5" t="s">
-        <v>745</v>
+        <v>15</v>
       </c>
       <c r="G414" s="5" t="s">
         <v>16</v>
@@ -34859,7 +34949,7 @@
         <v>14</v>
       </c>
       <c r="F415" s="5" t="s">
-        <v>745</v>
+        <v>15</v>
       </c>
       <c r="G415" s="5" t="s">
         <v>16</v>
@@ -34897,7 +34987,7 @@
         <v>14</v>
       </c>
       <c r="F416" s="5" t="s">
-        <v>745</v>
+        <v>15</v>
       </c>
       <c r="G416" s="5" t="s">
         <v>16</v>
@@ -34935,7 +35025,7 @@
         <v>14</v>
       </c>
       <c r="F417" s="5" t="s">
-        <v>745</v>
+        <v>15</v>
       </c>
       <c r="G417" s="5" t="s">
         <v>16</v>
@@ -34973,7 +35063,7 @@
         <v>14</v>
       </c>
       <c r="F418" s="5" t="s">
-        <v>745</v>
+        <v>15</v>
       </c>
       <c r="G418" s="5" t="s">
         <v>16</v>
@@ -35011,7 +35101,7 @@
         <v>14</v>
       </c>
       <c r="F419" s="5" t="s">
-        <v>745</v>
+        <v>15</v>
       </c>
       <c r="G419" s="5" t="s">
         <v>16</v>
@@ -35032,8 +35122,287 @@
         <v>18</v>
       </c>
     </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A420" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B420" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C420" s="5" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D420" s="5" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E420" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F420" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G420" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H420" s="5"/>
+      <c r="I420" s="5"/>
+      <c r="J420" s="5"/>
+      <c r="K420" s="5"/>
+      <c r="L420" s="5"/>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A421" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B421" s="5" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C421" s="5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D421" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E421" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F421" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G421" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H421" s="5"/>
+      <c r="I421" s="5"/>
+      <c r="J421" s="5"/>
+      <c r="K421" s="5"/>
+      <c r="L421" s="5"/>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A422" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B422" s="5" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C422" s="5" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D422" s="5" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E422" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F422" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G422" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H422" s="5"/>
+      <c r="I422" s="5"/>
+      <c r="J422" s="5"/>
+      <c r="K422" s="5"/>
+      <c r="L422" s="5"/>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A423" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B423" s="5" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C423" s="5" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D423" s="5" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E423" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F423" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G423" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H423" s="5"/>
+      <c r="I423" s="5"/>
+      <c r="J423" s="5"/>
+      <c r="K423" s="5"/>
+      <c r="L423" s="5"/>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A424" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B424" s="5" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C424" s="5" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D424" s="5" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E424" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F424" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G424" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H424" s="5"/>
+      <c r="I424" s="5"/>
+      <c r="J424" s="5"/>
+      <c r="K424" s="5"/>
+      <c r="L424" s="5"/>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A425" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B425" s="5" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C425" s="5" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D425" s="5" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E425" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F425" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G425" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H425" s="5"/>
+      <c r="I425" s="5"/>
+      <c r="J425" s="5"/>
+      <c r="K425" s="5"/>
+      <c r="L425" s="5"/>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A426" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B426" s="5" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C426" s="5" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D426" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E426" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F426" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G426" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H426" s="5"/>
+      <c r="I426" s="5"/>
+      <c r="J426" s="5"/>
+      <c r="K426" s="5"/>
+      <c r="L426" s="5"/>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A427" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B427" s="5" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C427" s="5" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D427" s="5" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E427" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F427" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G427" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H427" s="5"/>
+      <c r="I427" s="5"/>
+      <c r="J427" s="5"/>
+      <c r="K427" s="5"/>
+      <c r="L427" s="5"/>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A428" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B428" s="5" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C428" s="5" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D428" s="5" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E428" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F428" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G428" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H428" s="5"/>
+      <c r="I428" s="5"/>
+      <c r="J428" s="5"/>
+      <c r="K428" s="5"/>
+      <c r="L428" s="5"/>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A429" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B429" s="5" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C429" s="5" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D429" s="5" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E429" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F429" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G429" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H429" s="5"/>
+      <c r="I429" s="5"/>
+      <c r="J429" s="5"/>
+      <c r="K429" s="5"/>
+      <c r="L429" s="5"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:L419"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SIM Card Details/Airtel/All Airtel Numbers/All Airtel Numbers.xlsx
+++ b/SIM Card Details/Airtel/All Airtel Numbers/All Airtel Numbers.xlsx
@@ -19,7 +19,7 @@
     <sheet name="All SIMS" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'All SIMS'!$A$1:$L$419</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'All SIMS'!$A$1:$L$429</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Info!$A$1:$K$67</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9731" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9811" uniqueCount="1339">
   <si>
     <t>MOBILE_NUMBER</t>
   </si>
@@ -3954,6 +3954,96 @@
   </si>
   <si>
     <t>404490624645618</t>
+  </si>
+  <si>
+    <t>5754000558770</t>
+  </si>
+  <si>
+    <t>8991000905770767905</t>
+  </si>
+  <si>
+    <t>404490624645621</t>
+  </si>
+  <si>
+    <t>5754000558769</t>
+  </si>
+  <si>
+    <t>8991000905770767897</t>
+  </si>
+  <si>
+    <t>404490624645624</t>
+  </si>
+  <si>
+    <t>5754000558773</t>
+  </si>
+  <si>
+    <t>8991000905770767939</t>
+  </si>
+  <si>
+    <t>404490624645613</t>
+  </si>
+  <si>
+    <t>5754000558767</t>
+  </si>
+  <si>
+    <t>8991000905770767871</t>
+  </si>
+  <si>
+    <t>404490624645609</t>
+  </si>
+  <si>
+    <t>5754000558765</t>
+  </si>
+  <si>
+    <t>8991000905770767855</t>
+  </si>
+  <si>
+    <t>404490624647454</t>
+  </si>
+  <si>
+    <t>5754000558774</t>
+  </si>
+  <si>
+    <t>8991000905770767947</t>
+  </si>
+  <si>
+    <t>404490624645597</t>
+  </si>
+  <si>
+    <t>5754000558771</t>
+  </si>
+  <si>
+    <t>8991000905770767913</t>
+  </si>
+  <si>
+    <t>404490624645610</t>
+  </si>
+  <si>
+    <t>5754000558772</t>
+  </si>
+  <si>
+    <t>8991000905770767921</t>
+  </si>
+  <si>
+    <t>404490624645579</t>
+  </si>
+  <si>
+    <t>5754000558768</t>
+  </si>
+  <si>
+    <t>8991000905770767889</t>
+  </si>
+  <si>
+    <t>404490624645623</t>
+  </si>
+  <si>
+    <t>5754000558766</t>
+  </si>
+  <si>
+    <t>8991000905770767863</t>
+  </si>
+  <si>
+    <t>404490624645628</t>
   </si>
 </sst>
 </file>
@@ -19182,10 +19272,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:L429"/>
+  <dimension ref="A1:L439"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F392" sqref="F392:F429"/>
+    <sheetView tabSelected="1" topLeftCell="A422" workbookViewId="0">
+      <selection activeCell="F435" sqref="F435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35402,7 +35492,308 @@
       <c r="K429" s="5"/>
       <c r="L429" s="5"/>
     </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A430" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B430" s="5" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C430" s="5" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D430" s="5" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E430" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F430" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G430" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H430" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I430" s="5"/>
+      <c r="J430" s="5"/>
+      <c r="K430" s="5"/>
+      <c r="L430" s="5"/>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A431" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B431" s="5" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C431" s="5" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D431" s="5" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E431" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F431" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G431" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H431" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I431" s="5"/>
+      <c r="J431" s="5"/>
+      <c r="K431" s="5"/>
+      <c r="L431" s="5"/>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A432" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B432" s="5" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C432" s="5" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D432" s="5" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E432" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F432" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G432" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H432" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I432" s="5"/>
+      <c r="J432" s="5"/>
+      <c r="K432" s="5"/>
+      <c r="L432" s="5"/>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A433" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B433" s="5" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C433" s="5" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D433" s="5" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E433" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F433" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G433" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H433" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I433" s="5"/>
+      <c r="J433" s="5"/>
+      <c r="K433" s="5"/>
+      <c r="L433" s="5"/>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A434" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B434" s="5" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C434" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D434" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E434" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F434" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G434" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H434" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I434" s="5"/>
+      <c r="J434" s="5"/>
+      <c r="K434" s="5"/>
+      <c r="L434" s="5"/>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A435" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B435" s="5" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C435" s="5" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D435" s="5" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E435" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F435" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G435" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H435" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I435" s="5"/>
+      <c r="J435" s="5"/>
+      <c r="K435" s="5"/>
+      <c r="L435" s="5"/>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A436" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B436" s="5" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C436" s="5" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D436" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E436" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F436" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G436" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H436" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I436" s="5"/>
+      <c r="J436" s="5"/>
+      <c r="K436" s="5"/>
+      <c r="L436" s="5"/>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A437" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B437" s="5" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C437" s="5" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D437" s="5" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E437" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F437" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G437" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H437" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I437" s="5"/>
+      <c r="J437" s="5"/>
+      <c r="K437" s="5"/>
+      <c r="L437" s="5"/>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A438" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B438" s="5" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C438" s="5" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D438" s="5" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E438" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F438" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G438" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H438" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I438" s="5"/>
+      <c r="J438" s="5"/>
+      <c r="K438" s="5"/>
+      <c r="L438" s="5"/>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A439" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B439" s="5" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C439" s="5" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D439" s="5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E439" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F439" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G439" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H439" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I439" s="5"/>
+      <c r="J439" s="5"/>
+      <c r="K439" s="5"/>
+      <c r="L439" s="5"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:L429"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SIM Card Details/Airtel/All Airtel Numbers/All Airtel Numbers.xlsx
+++ b/SIM Card Details/Airtel/All Airtel Numbers/All Airtel Numbers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9811" uniqueCount="1339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9851" uniqueCount="1354">
   <si>
     <t>MOBILE_NUMBER</t>
   </si>
@@ -4044,6 +4044,51 @@
   </si>
   <si>
     <t>404490624645628</t>
+  </si>
+  <si>
+    <t>5754000558778</t>
+  </si>
+  <si>
+    <t>8991000905770767988</t>
+  </si>
+  <si>
+    <t>404490624645622</t>
+  </si>
+  <si>
+    <t>5754000558777</t>
+  </si>
+  <si>
+    <t>8991000905770767970</t>
+  </si>
+  <si>
+    <t>404490624645600</t>
+  </si>
+  <si>
+    <t>5754000558776</t>
+  </si>
+  <si>
+    <t>8991000905770767962</t>
+  </si>
+  <si>
+    <t>404490624647450</t>
+  </si>
+  <si>
+    <t>5754000558775</t>
+  </si>
+  <si>
+    <t>8991000905770767954</t>
+  </si>
+  <si>
+    <t>404490624647451</t>
+  </si>
+  <si>
+    <t>5754000558779</t>
+  </si>
+  <si>
+    <t>8991000905770767996</t>
+  </si>
+  <si>
+    <t>404490624645605</t>
   </si>
 </sst>
 </file>
@@ -19272,10 +19317,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:L439"/>
+  <dimension ref="A1:L444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A422" workbookViewId="0">
-      <selection activeCell="F435" sqref="F435"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35792,6 +35837,156 @@
       <c r="K439" s="5"/>
       <c r="L439" s="5"/>
     </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A440" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B440" s="5" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C440" s="5" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D440" s="5" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E440" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F440" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="G440" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H440" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I440" s="5"/>
+      <c r="J440" s="5"/>
+      <c r="K440" s="5"/>
+      <c r="L440" s="5"/>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A441" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B441" s="5" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C441" s="5" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D441" s="5" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E441" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F441" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="G441" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H441" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I441" s="5"/>
+      <c r="J441" s="5"/>
+      <c r="K441" s="5"/>
+      <c r="L441" s="5"/>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A442" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B442" s="5" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C442" s="5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D442" s="5" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E442" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F442" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="G442" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H442" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I442" s="5"/>
+      <c r="J442" s="5"/>
+      <c r="K442" s="5"/>
+      <c r="L442" s="5"/>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A443" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B443" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C443" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D443" s="5" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E443" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F443" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="G443" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H443" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I443" s="5"/>
+      <c r="J443" s="5"/>
+      <c r="K443" s="5"/>
+      <c r="L443" s="5"/>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A444" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B444" s="5" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C444" s="5" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D444" s="5" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E444" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F444" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="G444" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H444" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I444" s="5"/>
+      <c r="J444" s="5"/>
+      <c r="K444" s="5"/>
+      <c r="L444" s="5"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L429"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
